--- a/X2/bin/Debug/LK_dodaj_zadanie.xlsx
+++ b/X2/bin/Debug/LK_dodaj_zadanie.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Operation.name</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>//*[@id="InfoJet_Control5"]</t>
+  </si>
+  <si>
+    <t>/html/body/app-dashboard/div/main/div/ng-component/div/div/div[2]/div/app-table/div/table/tbody/tr[1]/td[1]</t>
+  </si>
+  <si>
+    <t>RefreshUntil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czekaj na wiersz z id </t>
   </si>
 </sst>
 </file>
@@ -470,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -636,6 +645,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1">
+        <v>127352</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
